--- a/m1/UnityProject/Assets/Scene/9000_Test/doc/DebriControl.xlsx
+++ b/m1/UnityProject/Assets/Scene/9000_Test/doc/DebriControl.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D715B1AC-3750-4BCA-A5F1-10397FB6694E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DC4AC8F-3264-4717-81D7-F38F111674DC}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="39">
   <si>
     <t>state</t>
     <phoneticPr fontId="13"/>
@@ -487,7 +487,11 @@
     <phoneticPr fontId="13"/>
   </si>
   <si>
-    <t xml:space="preserve">; The setting was created automatically. 2018/06/17 10:56:36
+    <t>br_Over(S_END);</t>
+    <phoneticPr fontId="13"/>
+  </si>
+  <si>
+    <t xml:space="preserve">; The setting was created automatically. 2018/06/20 21:57:56
 xlsfile=@@@
 DebriControl.xlsx
 @@@
@@ -501,7 +505,7 @@
 [{"Key":"S_Init","Value":{"x":83,"y":141}},{"Key":"S_CheckMouseGF","Value":{"x":1641,"y":1589.83337}},{"Key":"S_GroupFocus","Value":{"x":437.244476,"y":1574.85217}},{"Key":"S_FocusCancelWithTick","Value":{"x":168.689575,"y":1066.93384}},{"Key":"S_Refactor","Value":{"x":3145.12476,"y":1510.833}},{"Key":"S_Rename","Value":{"x":3139.74829,"y":1220.772}},{"Key":"S_Delete","Value":{"x":3138.25464,"y":956.555664}},{"Key":"S_Copy","Value":{"x":3124.11133,"y":716.5556}},{"Key":"S_ShowStateMenu","Value":{"x":2100.11133,"y":1006.36505}},{"Key":"S_FocusState2","Value":{"x":740.107239,"y":401.4206}},{"Key":"S_Idle2","Value":{"x":375.9669,"y":231.9509}},{"Key":"S_FreeArrow","Value":{"x":690.2707,"y":1243.35376}},{"Key":"S_FocusOne","Value":{"x":696.107239,"y":1650.8717}},{"Key":"S_BranchEditClose","Value":{"x":970.8478,"y":809.6318}},{"Key":"S_TotalDraw","Value":{"x":3542.44482,"y":810.635132}},{"Key":"S_EditWait","Value":{"x":2659.69824,"y":578.5556}},{"Key":"S_Edit","Value":{"x":2427.80957,"y":735.4445}},{"Key":"S_Drop","Value":{"x":2530.85742,"y":190.253952}},{"Key":"S_DragCancel","Value":{"x":987,"y":123}},{"Key":"S_DragMove","Value":{"x":2260.30713,"y":121.274521}},{"Key":"S_Drag","Value":{"x":2073.405,"y":101.143784}},{"Key":"S_CheckMouse","Value":{"x":1443.01855,"y":243.841583}},{"Key":"S_FocusCancel","Value":{"x":166.348022,"y":783.951}},{"Key":"S_IsMouseDown","Value":{"x":1212.59216,"y":238.459229}},{"Key":"S_FocusState","Value":{"x":736.3333,"y":174.333344}},{"Key":"S_BranchEditOpen","Value":{"x":801,"y":809}},{"Key":"S_DragAndDropGF","Value":{"x":1822.75,"y":1577}}]
 @@@
 fillter_state_location_list=@@@
-[{"Key":"\/","Value":[{"Key":"S_Init","Value":{"x":31.0512848,"y":106.307693}},{"Key":"S_FocusCancelWithTick","Value":{"x":246.365723,"y":1243.87061}},{"Key":"S_GroupFocus","Value":{"x":663.088562,"y":1251.60535}},{"Key":"S_CheckMouseGF","Value":{"x":1431,"y":1386}},{"Key":"S_FocusOne","Value":{"x":944.379,"y":1241.59119}},{"Key":"S_DragAndDropGF","Value":{"x":1431,"y":1386}},{"Key":"S_ShowStateMenuGF","Value":{"x":1431,"y":1386}},{"Key":"S_Grouping","Value":{"x":1431,"y":1386}},{"Key":"S_Refactor","Value":{"x":1232,"y":168}},{"Key":"S_MoveTo","Value":{"x":1431,"y":1386}},{"Key":"S_RedrawOpt","Value":{"x":1818.19714,"y":828.893}},{"Key":"S_FocusGroupNode","Value":{"x":1232,"y":320}},{"Key":"S_CheckMouseGN","Value":{"x":1232,"y":320}},{"Key":"S_DragAndDropGN","Value":{"x":1232,"y":320}},{"Key":"S_ShowGroupNodeMenu","Value":{"x":1232,"y":320}},{"Key":"S_EnterGN","Value":{"x":1232,"y":320}},{"Key":"S_UngroupingGN","Value":{"x":1232,"y":320}},{"Key":"S_Ungrouping","Value":{"x":1431,"y":1386}},{"Key":"S_ShowBlankMenu","Value":{"x":1230,"y":497}},{"Key":"S_Rename","Value":{"x":1232,"y":168}},{"Key":"S_Copy","Value":{"x":1232,"y":168}},{"Key":"S_FocusState","Value":{"x":1232,"y":168}},{"Key":"S_IsMouseDown","Value":{"x":1232,"y":168}},{"Key":"S_FocusCancel","Value":{"x":251.681366,"y":866.6176}},{"Key":"S_CheckMouse","Value":{"x":1232,"y":168}},{"Key":"S_Drag","Value":{"x":1232,"y":168}},{"Key":"S_DragMove","Value":{"x":1232,"y":168}},{"Key":"S_DragCancel","Value":{"x":1232,"y":168}},{"Key":"S_Delete","Value":{"x":1232,"y":168}},{"Key":"S_Drop","Value":{"x":1232,"y":168}},{"Key":"S_EditWait","Value":{"x":1232,"y":168}},{"Key":"S_BranchEditOpen","Value":{"x":448.910522,"y":116.41124}},{"Key":"S_BranchEditClose","Value":{"x":642.3312,"y":113.063263}},{"Key":"S_FreeArrow","Value":{"x":662.0944,"y":880.246948}},{"Key":"S_Idle2","Value":{"x":242.300232,"y":99.9509}},{"Key":"S_FocusState2","Value":{"x":1232,"y":168}},{"Key":"S_ShowStateMenu","Value":{"x":1232,"y":168}},{"Key":"S_Edit","Value":{"x":1232,"y":168}},{"Key":"S_Leave","Value":{"x":1230,"y":497}},{"Key":"S_EditGN","Value":{"x":1232,"y":320}},{"Key":"S_BranchEditOpen0","Value":{"x":1232.91052,"y":716.411255}},{"Key":"S_HoldMBD_INIT","Value":{"x":1233.91052,"y":716.411255}},{"Key":"S_Sliding","Value":{"x":1235.91052,"y":721.411255}},{"Key":"S_Moveto","Value":{"x":1232,"y":168}},{"Key":"S_MovetoGN","Value":{"x":1232,"y":320}},{"Key":"S_NewState","Value":{"x":1230,"y":497}},{"Key":"S_START","Value":{"x":36.8235245,"y":54.8235168}},{"Key":"S_EDT_BMP","Value":{"x":693,"y":4}},{"Key":"S_EDT_ST","Value":{"x":696.6668,"y":136}},{"Key":"S_EDT_NST","Value":{"x":692,"y":270.999939}},{"Key":"S_EDT_BR","Value":{"x":697.333435,"y":415.999939}},{"Key":"S_EDT_BRGO","Value":{"x":925.3334,"y":410.000061}},{"Key":"S_EDT_TEXT","Value":{"x":925.9998,"y":958.9999}},{"Key":"S_EDT_SRCH","Value":{"x":703,"y":643.6666}},{"Key":"S_EDT_LVL","Value":{"x":693.666565,"y":817.666748}},{"Key":"S_END","Value":{"x":960.318359,"y":63.6436768}},{"Key":"S_1","Value":{"x":598,"y":62}},{"Key":"S_WAIT","Value":{"x":264,"y":255}},{"Key":"S_CAMERA_0","Value":{"x":505,"y":130}},{"Key":"S_CAM_T1","Value":{"x":702.588257,"y":30.4705963}},{"Key":"S_SETUP","Value":{"x":227.2941,"y":154.411728}},{"Key":"S_LAUNCHSTART","Value":{"x":887.353,"y":30.352951}},{"Key":"S_SETUP_STAGE2","Value":{"x":256.7648,"y":411.5294}},{"Key":"S_SETUP_STAGE1","Value":{"x":315.2941,"y":32.82351}},{"Key":"S_DEBUG","Value":{"x":54.11767,"y":298.823547}},{"Key":"S_INIT","Value":{"x":211,"y":54}},{"Key":"S_FIRE","Value":{"x":467,"y":256}}]},{"Key":"\/SingleStateWork\/","Value":[{"Key":"S_FocusState","Value":{"x":455.0658,"y":694}},{"Key":"S_FocusCancelWithTick","Value":{"x":170.507751,"y":1170.57019}},{"Key":"S_Refactor","Value":{"x":1491.9552,"y":1516.94031}},{"Key":"S_Rename","Value":{"x":1483.36255,"y":1075.50513}},{"Key":"S_Delete","Value":{"x":1478.84619,"y":880.538452}},{"Key":"S_Copy","Value":{"x":1465.60193,"y":648.725647}},{"Key":"S_ShowStateMenu","Value":{"x":1228.15222,"y":937.124756}},{"Key":"S_FocusState2","Value":{"x":453.40625,"y":403.094421}},{"Key":"S_Idle2","Value":{"x":175.512329,"y":179.981186}},{"Key":"S_EditWait","Value":{"x":1463.96655,"y":400.675049}},{"Key":"S_Edit","Value":{"x":1224.66321,"y":485.389771}},{"Key":"S_Drop","Value":{"x":1701.46033,"y":169.437088}},{"Key":"S_DragCancel","Value":{"x":454.119263,"y":190.307678}},{"Key":"S_DragMove","Value":{"x":1468.66675,"y":122.333328}},{"Key":"S_Drag","Value":{"x":1220.46375,"y":139.14032}},{"Key":"S_CheckMouse","Value":{"x":970.461548,"y":121}},{"Key":"S_FocusCancel","Value":{"x":166.348022,"y":776.6782}},{"Key":"S_IsMouseDown","Value":{"x":746,"y":136.504089}},{"Key":"S_FocusOne","Value":{"x":430,"y":1200.36621}},{"Key":"S_RedrawOpt","Value":{"x":1925.08044,"y":1161.68811}},{"Key":"S_Rename0","Value":{"x":1497.83618,"y":1287.34717}},{"Key":"S_Moveto","Value":{"x":1491.2572,"y":1287.34717}}]},{"Key":"\/GroupFocus\/","Value":[{"Key":"S_FocusCancel","Value":{"x":799.999939,"y":1030}},{"Key":"S_GroupFocus","Value":{"x":114.285675,"y":65.7142944}},{"Key":"S_CheckMouseGF","Value":{"x":404.8571,"y":86.94879}},{"Key":"S_DragAndDropGF","Value":{"x":806.782043,"y":89.2857056}},{"Key":"S_ShowStateMenuGF","Value":{"x":806.639038,"y":532.1429}},{"Key":"S_Grouping","Value":{"x":1107.92493,"y":127.857132}},{"Key":"S_MoveTo","Value":{"x":1099.21057,"y":556.4285}},{"Key":"S_Ungrouping","Value":{"x":1100.49622,"y":899.285645}},{"Key":"S_RedrawOpt","Value":{"x":1540.35327,"y":549.285767}}]},{"Key":"\/ShowBlankMenu\/","Value":[{"Key":"S_Idle2","Value":{"x":375.9669,"y":231.9509}},{"Key":"S_RedrawOpt","Value":{"x":1615.9082,"y":457.833221}},{"Key":"S_ShowBlankMenu","Value":{"x":844.084534,"y":533.1274}},{"Key":"S_Leave","Value":{"x":1228.73169,"y":575.480347}}]},{"Key":"\/GroupNodeWork\/","Value":[{"Key":"S_FocusCancel","Value":{"x":166.348022,"y":783.951}},{"Key":"S_Idle2","Value":{"x":375.9669,"y":231.9509}},{"Key":"S_FocusCancelWithTick","Value":{"x":168.689575,"y":1066.93384}},{"Key":"S_RedrawOpt","Value":{"x":2355.6897,"y":1086.934}},{"Key":"S_FocusGroupNode","Value":{"x":693,"y":503}},{"Key":"S_CheckMouseGN","Value":{"x":940,"y":503}},{"Key":"S_DragAndDropGN","Value":{"x":1187,"y":503}},{"Key":"S_ShowGroupNodeMenu","Value":{"x":1434,"y":503}},{"Key":"S_EnterGN","Value":{"x":1681,"y":503}},{"Key":"S_UngroupingGN","Value":{"x":1686.33337,"y":658.3333}},{"Key":"S_UngroupingGN0","Value":{"x":1702.33337,"y":787.3333}},{"Key":"S_EditGN","Value":{"x":1689.66663,"y":969.6666}},{"Key":"S_MovetoGN","Value":{"x":1689.33337,"y":797.3333}}]},{"Key":"\/BlankWork\/","Value":[{"Key":"S_Idle2","Value":{"x":375.9669,"y":231.9509}},{"Key":"S_RedrawOpt","Value":{"x":622.9669,"y":231.9509}},{"Key":"S_ShowBlankMenu","Value":{"x":869.9669,"y":231.9509}},{"Key":"S_Leave","Value":{"x":1116.96692,"y":231.9509}},{"Key":"S_Leave0","Value":{"x":1134.46692,"y":431.9509}},{"Key":"S_NewState","Value":{"x":1123.21692,"y":440.7009}}]}]
+[{"Key":"\/","Value":[{"Key":"S_Init","Value":{"x":31.0512848,"y":106.307693}},{"Key":"S_FocusCancelWithTick","Value":{"x":246.365723,"y":1243.87061}},{"Key":"S_GroupFocus","Value":{"x":663.088562,"y":1251.60535}},{"Key":"S_CheckMouseGF","Value":{"x":1431,"y":1386}},{"Key":"S_FocusOne","Value":{"x":944.379,"y":1241.59119}},{"Key":"S_DragAndDropGF","Value":{"x":1431,"y":1386}},{"Key":"S_ShowStateMenuGF","Value":{"x":1431,"y":1386}},{"Key":"S_Grouping","Value":{"x":1431,"y":1386}},{"Key":"S_Refactor","Value":{"x":1232,"y":168}},{"Key":"S_MoveTo","Value":{"x":1431,"y":1386}},{"Key":"S_RedrawOpt","Value":{"x":1818.19714,"y":828.893}},{"Key":"S_FocusGroupNode","Value":{"x":1232,"y":320}},{"Key":"S_CheckMouseGN","Value":{"x":1232,"y":320}},{"Key":"S_DragAndDropGN","Value":{"x":1232,"y":320}},{"Key":"S_ShowGroupNodeMenu","Value":{"x":1232,"y":320}},{"Key":"S_EnterGN","Value":{"x":1232,"y":320}},{"Key":"S_UngroupingGN","Value":{"x":1232,"y":320}},{"Key":"S_Ungrouping","Value":{"x":1431,"y":1386}},{"Key":"S_ShowBlankMenu","Value":{"x":1230,"y":497}},{"Key":"S_Rename","Value":{"x":1232,"y":168}},{"Key":"S_Copy","Value":{"x":1232,"y":168}},{"Key":"S_FocusState","Value":{"x":1232,"y":168}},{"Key":"S_IsMouseDown","Value":{"x":1232,"y":168}},{"Key":"S_FocusCancel","Value":{"x":251.681366,"y":866.6176}},{"Key":"S_CheckMouse","Value":{"x":1232,"y":168}},{"Key":"S_Drag","Value":{"x":1232,"y":168}},{"Key":"S_DragMove","Value":{"x":1232,"y":168}},{"Key":"S_DragCancel","Value":{"x":1232,"y":168}},{"Key":"S_Delete","Value":{"x":1232,"y":168}},{"Key":"S_Drop","Value":{"x":1232,"y":168}},{"Key":"S_EditWait","Value":{"x":1232,"y":168}},{"Key":"S_BranchEditOpen","Value":{"x":448.910522,"y":116.41124}},{"Key":"S_BranchEditClose","Value":{"x":642.3312,"y":113.063263}},{"Key":"S_FreeArrow","Value":{"x":662.0944,"y":880.246948}},{"Key":"S_Idle2","Value":{"x":242.300232,"y":99.9509}},{"Key":"S_FocusState2","Value":{"x":1232,"y":168}},{"Key":"S_ShowStateMenu","Value":{"x":1232,"y":168}},{"Key":"S_Edit","Value":{"x":1232,"y":168}},{"Key":"S_Leave","Value":{"x":1230,"y":497}},{"Key":"S_EditGN","Value":{"x":1232,"y":320}},{"Key":"S_BranchEditOpen0","Value":{"x":1232.91052,"y":716.411255}},{"Key":"S_HoldMBD_INIT","Value":{"x":1233.91052,"y":716.411255}},{"Key":"S_Sliding","Value":{"x":1235.91052,"y":721.411255}},{"Key":"S_Moveto","Value":{"x":1232,"y":168}},{"Key":"S_MovetoGN","Value":{"x":1232,"y":320}},{"Key":"S_NewState","Value":{"x":1230,"y":497}},{"Key":"S_START","Value":{"x":36.8235245,"y":54.8235168}},{"Key":"S_EDT_BMP","Value":{"x":693,"y":4}},{"Key":"S_EDT_ST","Value":{"x":696.6668,"y":136}},{"Key":"S_EDT_NST","Value":{"x":692,"y":270.999939}},{"Key":"S_EDT_BR","Value":{"x":697.333435,"y":415.999939}},{"Key":"S_EDT_BRGO","Value":{"x":925.3334,"y":410.000061}},{"Key":"S_EDT_TEXT","Value":{"x":925.9998,"y":958.9999}},{"Key":"S_EDT_SRCH","Value":{"x":703,"y":643.6666}},{"Key":"S_EDT_LVL","Value":{"x":693.666565,"y":817.666748}},{"Key":"S_END","Value":{"x":902.318359,"y":350.643677}},{"Key":"S_1","Value":{"x":598,"y":62}},{"Key":"S_WAIT","Value":{"x":417,"y":270}},{"Key":"S_CAMERA_0","Value":{"x":505,"y":130}},{"Key":"S_CAM_T1","Value":{"x":702.588257,"y":30.4705963}},{"Key":"S_SETUP","Value":{"x":227.2941,"y":154.411728}},{"Key":"S_LAUNCHSTART","Value":{"x":887.353,"y":30.352951}},{"Key":"S_SETUP_STAGE2","Value":{"x":256.7648,"y":411.5294}},{"Key":"S_SETUP_STAGE1","Value":{"x":315.2941,"y":32.82351}},{"Key":"S_DEBUG","Value":{"x":54.11767,"y":298.823547}},{"Key":"S_INIT","Value":{"x":211,"y":54}},{"Key":"S_FIRE","Value":{"x":891,"y":139}}]},{"Key":"\/SingleStateWork\/","Value":[{"Key":"S_FocusState","Value":{"x":455.0658,"y":694}},{"Key":"S_FocusCancelWithTick","Value":{"x":170.507751,"y":1170.57019}},{"Key":"S_Refactor","Value":{"x":1491.9552,"y":1516.94031}},{"Key":"S_Rename","Value":{"x":1483.36255,"y":1075.50513}},{"Key":"S_Delete","Value":{"x":1478.84619,"y":880.538452}},{"Key":"S_Copy","Value":{"x":1465.60193,"y":648.725647}},{"Key":"S_ShowStateMenu","Value":{"x":1228.15222,"y":937.124756}},{"Key":"S_FocusState2","Value":{"x":453.40625,"y":403.094421}},{"Key":"S_Idle2","Value":{"x":175.512329,"y":179.981186}},{"Key":"S_EditWait","Value":{"x":1463.96655,"y":400.675049}},{"Key":"S_Edit","Value":{"x":1224.66321,"y":485.389771}},{"Key":"S_Drop","Value":{"x":1701.46033,"y":169.437088}},{"Key":"S_DragCancel","Value":{"x":454.119263,"y":190.307678}},{"Key":"S_DragMove","Value":{"x":1468.66675,"y":122.333328}},{"Key":"S_Drag","Value":{"x":1220.46375,"y":139.14032}},{"Key":"S_CheckMouse","Value":{"x":970.461548,"y":121}},{"Key":"S_FocusCancel","Value":{"x":166.348022,"y":776.6782}},{"Key":"S_IsMouseDown","Value":{"x":746,"y":136.504089}},{"Key":"S_FocusOne","Value":{"x":430,"y":1200.36621}},{"Key":"S_RedrawOpt","Value":{"x":1925.08044,"y":1161.68811}},{"Key":"S_Rename0","Value":{"x":1497.83618,"y":1287.34717}},{"Key":"S_Moveto","Value":{"x":1491.2572,"y":1287.34717}}]},{"Key":"\/GroupFocus\/","Value":[{"Key":"S_FocusCancel","Value":{"x":799.999939,"y":1030}},{"Key":"S_GroupFocus","Value":{"x":114.285675,"y":65.7142944}},{"Key":"S_CheckMouseGF","Value":{"x":404.8571,"y":86.94879}},{"Key":"S_DragAndDropGF","Value":{"x":806.782043,"y":89.2857056}},{"Key":"S_ShowStateMenuGF","Value":{"x":806.639038,"y":532.1429}},{"Key":"S_Grouping","Value":{"x":1107.92493,"y":127.857132}},{"Key":"S_MoveTo","Value":{"x":1099.21057,"y":556.4285}},{"Key":"S_Ungrouping","Value":{"x":1100.49622,"y":899.285645}},{"Key":"S_RedrawOpt","Value":{"x":1540.35327,"y":549.285767}}]},{"Key":"\/ShowBlankMenu\/","Value":[{"Key":"S_Idle2","Value":{"x":375.9669,"y":231.9509}},{"Key":"S_RedrawOpt","Value":{"x":1615.9082,"y":457.833221}},{"Key":"S_ShowBlankMenu","Value":{"x":844.084534,"y":533.1274}},{"Key":"S_Leave","Value":{"x":1228.73169,"y":575.480347}}]},{"Key":"\/GroupNodeWork\/","Value":[{"Key":"S_FocusCancel","Value":{"x":166.348022,"y":783.951}},{"Key":"S_Idle2","Value":{"x":375.9669,"y":231.9509}},{"Key":"S_FocusCancelWithTick","Value":{"x":168.689575,"y":1066.93384}},{"Key":"S_RedrawOpt","Value":{"x":2355.6897,"y":1086.934}},{"Key":"S_FocusGroupNode","Value":{"x":693,"y":503}},{"Key":"S_CheckMouseGN","Value":{"x":940,"y":503}},{"Key":"S_DragAndDropGN","Value":{"x":1187,"y":503}},{"Key":"S_ShowGroupNodeMenu","Value":{"x":1434,"y":503}},{"Key":"S_EnterGN","Value":{"x":1681,"y":503}},{"Key":"S_UngroupingGN","Value":{"x":1686.33337,"y":658.3333}},{"Key":"S_UngroupingGN0","Value":{"x":1702.33337,"y":787.3333}},{"Key":"S_EditGN","Value":{"x":1689.66663,"y":969.6666}},{"Key":"S_MovetoGN","Value":{"x":1689.33337,"y":797.3333}}]},{"Key":"\/BlankWork\/","Value":[{"Key":"S_Idle2","Value":{"x":375.9669,"y":231.9509}},{"Key":"S_RedrawOpt","Value":{"x":622.9669,"y":231.9509}},{"Key":"S_ShowBlankMenu","Value":{"x":869.9669,"y":231.9509}},{"Key":"S_Leave","Value":{"x":1116.96692,"y":231.9509}},{"Key":"S_Leave0","Value":{"x":1134.46692,"y":431.9509}},{"Key":"S_NewState","Value":{"x":1123.21692,"y":440.7009}}]}]
 @@@
 linecolor_data=@@@
 [{"color":{"knownColor":0,"name":null,"state":2,"value":4285493103},"pattern":"BTN_BY.\\("}]
@@ -523,7 +527,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -703,8 +707,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -761,6 +772,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9E1F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -942,7 +959,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1089,6 +1106,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="22" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="23" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1385,7 +1405,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5">
       <c r="A1" s="44" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1639,7 +1659,7 @@
       <c r="D12" s="7"/>
       <c r="E12" s="35"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" ht="18.75" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="9" t="s">
         <v>6</v>
@@ -1647,6 +1667,9 @@
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
       <c r="E13" s="36"/>
+      <c r="G13" s="50" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="18.75" customHeight="1">
       <c r="A14" s="37"/>
